--- a/nmadb/480737.xlsx
+++ b/nmadb/480737.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22320" windowHeight="10520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="10515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">t2 </t>
   </si>
   <si>
-    <t>WMD</t>
-  </si>
-  <si>
     <t>LCI</t>
   </si>
   <si>
@@ -125,13 +122,22 @@
   </si>
   <si>
     <t>Darunavir</t>
+  </si>
+  <si>
+    <t>effect=WMD</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -379,9 +385,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,26 +704,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="5" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="5"/>
-    <col min="5" max="5" width="8.83203125" style="40"/>
-    <col min="6" max="7" width="8.83203125" style="9"/>
-    <col min="8" max="8" width="9.1640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="23.83203125" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="5"/>
+    <col min="5" max="5" width="8.85546875" style="39"/>
+    <col min="6" max="7" width="8.85546875" style="9"/>
+    <col min="8" max="9" width="9.140625" style="35" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -736,22 +738,25 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="41" t="s">
+      <c r="I1" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="41"/>
+      <c r="K1" s="40"/>
       <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
@@ -761,7 +766,7 @@
         <v>2009</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="30">
         <v>1</v>
@@ -769,17 +774,21 @@
       <c r="D2" s="32">
         <v>2</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="38">
         <v>1</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="32">
         <v>27.8</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="32">
         <v>-4.62</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="32">
         <v>60.22</v>
+      </c>
+      <c r="I2" s="32">
+        <f>(H2-G2)/(1.96^2)</f>
+        <v>16.878384006663893</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>8</v>
@@ -790,7 +799,7 @@
         <v>2008</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="30">
         <v>2</v>
@@ -798,28 +807,32 @@
       <c r="D3" s="32">
         <v>2</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="38">
         <v>1</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="32">
         <v>60.7</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="32">
         <v>34.5</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="32">
         <v>86.9</v>
+      </c>
+      <c r="I3" s="32">
+        <f>(H3-G3)/(1.96^2)</f>
+        <v>13.640149937526033</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="28">
         <v>2010</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="31">
         <v>3</v>
@@ -827,17 +840,21 @@
       <c r="D4" s="32">
         <v>3</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="38">
         <v>1</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="32">
         <v>45.5</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="32">
         <v>-20.91</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="32">
         <v>111.91</v>
+      </c>
+      <c r="I4" s="32">
+        <f t="shared" ref="I4:I11" si="0">(H4-G4)/(1.96^2)</f>
+        <v>34.574135776759682</v>
       </c>
       <c r="L4" s="7"/>
     </row>
@@ -846,7 +863,7 @@
         <v>2010</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="31">
         <v>4</v>
@@ -854,17 +871,21 @@
       <c r="D5" s="28">
         <v>3</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="38">
         <v>1</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="32">
         <v>9</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="32">
         <v>-14.33</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="32">
         <v>32.33</v>
+      </c>
+      <c r="I5" s="32">
+        <f t="shared" si="0"/>
+        <v>12.145980841316119</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>2</v>
@@ -881,7 +902,7 @@
         <v>2005</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="31">
         <v>5</v>
@@ -889,24 +910,28 @@
       <c r="D6" s="32">
         <v>4</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="38">
         <v>1</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="32">
         <v>45.2</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="32">
         <v>32.9</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="32">
         <v>57.5</v>
+      </c>
+      <c r="I6" s="32">
+        <f t="shared" si="0"/>
+        <v>6.4035818408996263</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="11">
         <v>2</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -914,7 +939,7 @@
         <v>2009</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="28">
         <v>6</v>
@@ -922,24 +947,28 @@
       <c r="D7" s="32">
         <v>5</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <v>1</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="32">
         <v>25</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="32">
         <v>12.39</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="32">
         <v>37.61</v>
+      </c>
+      <c r="I7" s="32">
+        <f t="shared" si="0"/>
+        <v>6.5649729279466893</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="10">
         <v>3</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -947,7 +976,7 @@
         <v>2009</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="28">
         <v>7</v>
@@ -955,24 +984,28 @@
       <c r="D8" s="32">
         <v>5</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="38">
         <v>1</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="32">
         <v>48</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="32">
         <v>8.43</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="32">
         <v>87.57</v>
+      </c>
+      <c r="I8" s="32">
+        <f t="shared" si="0"/>
+        <v>20.60079133694294</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="10">
         <v>4</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20.25" customHeight="1">
@@ -980,7 +1013,7 @@
         <v>2008</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="28">
         <v>8</v>
@@ -988,24 +1021,28 @@
       <c r="D9" s="32">
         <v>6</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="38">
         <v>1</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="32">
         <v>62.4</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="32">
         <v>45.44</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="32">
         <v>79.36</v>
+      </c>
+      <c r="I9" s="32">
+        <f t="shared" si="0"/>
+        <v>8.8296543107038747</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="10">
         <v>5</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1013,7 +1050,7 @@
         <v>2006</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="28">
         <v>9</v>
@@ -1021,24 +1058,28 @@
       <c r="D10" s="32">
         <v>7</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="38">
         <v>1</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="32">
         <v>23.9</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="32">
         <v>14.13</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="32">
         <v>33.67</v>
+      </c>
+      <c r="I10" s="32">
+        <f t="shared" si="0"/>
+        <v>5.0864223240316537</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="10">
         <v>6</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1046,7 +1087,7 @@
         <v>2007</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="28">
         <v>10</v>
@@ -1054,24 +1095,28 @@
       <c r="D11" s="32">
         <v>8</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="38">
         <v>1</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="32">
         <v>60</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="32">
         <v>33.57</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="32">
         <v>86.43</v>
+      </c>
+      <c r="I11" s="32">
+        <f t="shared" si="0"/>
+        <v>13.759891711786759</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="10">
         <v>7</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1079,7 +1124,7 @@
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="39"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="29"/>
       <c r="G12" s="34"/>
       <c r="J12" s="21"/>
@@ -1087,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1095,7 +1140,7 @@
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="39"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="29"/>
       <c r="G13" s="34"/>
       <c r="J13" s="21"/>
@@ -1104,7 +1149,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="D14" s="28"/>
-      <c r="E14" s="39"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="29"/>
       <c r="G14" s="34"/>
       <c r="J14" s="21"/>
@@ -1113,62 +1158,65 @@
     </row>
     <row r="15" spans="1:12">
       <c r="D15" s="28"/>
-      <c r="E15" s="39"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="29"/>
       <c r="G15" s="34"/>
       <c r="J15" s="21"/>
       <c r="K15" s="10"/>
       <c r="L15" s="23"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="G16" s="34"/>
       <c r="J16" s="24"/>
       <c r="K16" s="25"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="7:7">
+    <row r="17" spans="7:10">
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="7:7">
+    <row r="18" spans="7:10">
       <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="7:7">
+      <c r="J18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10">
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="7:7">
-      <c r="G20" s="37"/>
-    </row>
-    <row r="21" spans="7:7">
+    <row r="20" spans="7:10">
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="7:10">
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="7:7">
-      <c r="G22" s="37"/>
-    </row>
-    <row r="23" spans="7:7">
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="7:7">
-      <c r="G24" s="37"/>
-    </row>
-    <row r="25" spans="7:7">
+    <row r="22" spans="7:10">
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="7:10">
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="7:10">
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="7:10">
       <c r="G25" s="29"/>
     </row>
-    <row r="26" spans="7:7">
+    <row r="26" spans="7:10">
       <c r="G26" s="29"/>
     </row>
-    <row r="27" spans="7:7">
+    <row r="27" spans="7:10">
       <c r="G27" s="29"/>
     </row>
-    <row r="28" spans="7:7">
+    <row r="28" spans="7:10">
       <c r="G28" s="29"/>
     </row>
-    <row r="29" spans="7:7">
+    <row r="29" spans="7:10">
       <c r="G29" s="29"/>
     </row>
-    <row r="30" spans="7:7">
+    <row r="30" spans="7:10">
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="7:7">
+    <row r="31" spans="7:10">
       <c r="G31" s="29"/>
     </row>
   </sheetData>
@@ -1186,12 +1234,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1203,12 +1251,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
